--- a/tradingrecord MW0017.xlsx
+++ b/tradingrecord MW0017.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1829" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="179">
   <si>
     <t>date</t>
   </si>
@@ -789,7 +789,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="187" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -865,6 +865,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -939,10 +942,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'สรุป ETH'!$A$52:$A$64</c:f>
+              <c:f>'สรุป ETH'!$A$52:$A$66</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>44562</c:v>
                 </c:pt>
@@ -981,16 +984,22 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44718</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44725</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44732</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'สรุป ETH'!$B$52:$B$64</c:f>
+              <c:f>'สรุป ETH'!$B$52:$B$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1029,6 +1038,12 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.4999999999999998E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1045,11 +1060,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="109779584"/>
-        <c:axId val="109781376"/>
+        <c:axId val="109906560"/>
+        <c:axId val="109912448"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="109779584"/>
+        <c:axId val="109906560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1059,7 +1074,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109781376"/>
+        <c:crossAx val="109912448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1068,7 +1083,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="109781376"/>
+        <c:axId val="109912448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1079,7 +1094,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109779584"/>
+        <c:crossAx val="109906560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1144,10 +1159,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'สรุป ETH'!$A$52:$A$64</c:f>
+              <c:f>'สรุป ETH'!$A$52:$A$66</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>44562</c:v>
                 </c:pt>
@@ -1186,16 +1201,22 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>44718</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44725</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44732</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'สรุป ETH'!$I$52:$I$64</c:f>
+              <c:f>'สรุป ETH'!$I$52:$I$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1234,6 +1255,12 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>5.4540039999999994</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.4540039999999994</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.554004000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1250,11 +1277,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="109822336"/>
-        <c:axId val="109823872"/>
+        <c:axId val="110428544"/>
+        <c:axId val="110430080"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="109822336"/>
+        <c:axId val="110428544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1264,7 +1291,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109823872"/>
+        <c:crossAx val="110430080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1273,7 +1300,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="109823872"/>
+        <c:axId val="110430080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1284,7 +1311,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109822336"/>
+        <c:crossAx val="110428544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1345,10 +1372,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'สรุป ETH'!$A$52:$A$63</c:f>
+              <c:f>'สรุป ETH'!$A$52:$A$66</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>44562</c:v>
                 </c:pt>
@@ -1384,51 +1411,69 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>44711</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44718</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44725</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44732</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'สรุป ETH'!$N$52:$N$63</c:f>
+              <c:f>'สรุป ETH'!$N$52:$N$66</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.5695231548480479E-2</c:v>
+                  <c:v>-2.3973089725036197E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-7.8573082489146184E-3</c:v>
+                  <c:v>-4.9195369030390762E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-3.9325557163531026E-3</c:v>
+                  <c:v>-7.9217945007234989E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-3.7101881331403741E-2</c:v>
+                  <c:v>-3.3961505065122986E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-3.1419690303907379E-2</c:v>
+                  <c:v>-2.7920413892908825E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-4.017654124457308E-2</c:v>
+                  <c:v>-3.6445716353111432E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-3.578636324167872E-2</c:v>
+                  <c:v>-3.1925292329956577E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.11615548480463098</c:v>
+                  <c:v>-0.11200497829232997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.14953527496382052</c:v>
+                  <c:v>-0.14422702604920404</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.1578048379160637</c:v>
+                  <c:v>-0.15094810274963821</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.16177153979739506</c:v>
+                  <c:v>-0.1548916497829233</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.16942421128798846</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.31370518668596237</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.31826658755426929</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1454,10 +1499,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'สรุป ETH'!$A$52:$A$63</c:f>
+              <c:f>'สรุป ETH'!$A$52:$A$66</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>44562</c:v>
                 </c:pt>
@@ -1493,16 +1538,25 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>44711</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44718</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44725</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44732</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'สรุป ETH'!$O$52:$O$63</c:f>
+              <c:f>'สรุป ETH'!$O$52:$O$66</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1538,6 +1592,15 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>-0.43595930232558139</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.45979651162790697</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.64901162790697675</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.6723546511627907</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1554,11 +1617,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="115751552"/>
-        <c:axId val="115757440"/>
+        <c:axId val="111164032"/>
+        <c:axId val="111169920"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="115751552"/>
+        <c:axId val="111164032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1568,14 +1631,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115757440"/>
+        <c:crossAx val="111169920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="115757440"/>
+        <c:axId val="111169920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1586,7 +1649,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115751552"/>
+        <c:crossAx val="111164032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1762,50 +1825,71 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'สรุป ETH'!$R$51:$AE$51</c:f>
+              <c:f>'สรุป ETH'!$R$51:$AL$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1700</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="8">
                   <c:v>1800</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="9">
                   <c:v>1900</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="10">
                   <c:v>2000</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="11">
                   <c:v>2100</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="12">
                   <c:v>2200</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="13">
                   <c:v>2300</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="14">
                   <c:v>2400</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>2500</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="16">
                   <c:v>2600</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="17">
                   <c:v>2700</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="18">
                   <c:v>2800</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="19">
                   <c:v>2900</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="20">
                   <c:v>3000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1813,50 +1897,71 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'สรุป ETH'!$R$52:$AE$52</c:f>
+              <c:f>'สรุป ETH'!$R$52:$AL$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>8.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>1.6E-2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="9">
                   <c:v>0.7</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="10">
                   <c:v>1.07</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>0.29000000000000004</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="20">
                   <c:v>2.5780000000000003</c:v>
                 </c:pt>
               </c:numCache>
@@ -1880,50 +1985,71 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'สรุป ETH'!$R$51:$AE$51</c:f>
+              <c:f>'สรุป ETH'!$R$51:$AL$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1700</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="8">
                   <c:v>1800</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="9">
                   <c:v>1900</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="10">
                   <c:v>2000</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="11">
                   <c:v>2100</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="12">
                   <c:v>2200</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="13">
                   <c:v>2300</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="14">
                   <c:v>2400</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>2500</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="16">
                   <c:v>2600</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="17">
                   <c:v>2700</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="18">
                   <c:v>2800</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="19">
                   <c:v>2900</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="20">
                   <c:v>3000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1931,10 +2057,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'สรุป ETH'!$R$53:$AE$53</c:f>
+              <c:f>'สรุป ETH'!$R$53:$AL$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1975,6 +2101,27 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>1.19</c:v>
                 </c:pt>
               </c:numCache>
@@ -1998,50 +2145,71 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'สรุป ETH'!$R$51:$AE$51</c:f>
+              <c:f>'สรุป ETH'!$R$51:$AL$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1700</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="8">
                   <c:v>1800</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="9">
                   <c:v>1900</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="10">
                   <c:v>2000</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="11">
                   <c:v>2100</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="12">
                   <c:v>2200</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="13">
                   <c:v>2300</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="14">
                   <c:v>2400</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>2500</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="16">
                   <c:v>2600</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="17">
                   <c:v>2700</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="18">
                   <c:v>2800</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="19">
                   <c:v>2900</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="20">
                   <c:v>3000</c:v>
                 </c:pt>
               </c:numCache>
@@ -2049,10 +2217,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'สรุป ETH'!$R$54:$AE$54</c:f>
+              <c:f>'สรุป ETH'!$R$54:$AL$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2093,6 +2261,27 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0.84</c:v>
                 </c:pt>
               </c:numCache>
@@ -2116,50 +2305,71 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'สรุป ETH'!$R$51:$AE$51</c:f>
+              <c:f>'สรุป ETH'!$R$51:$AL$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1700</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="8">
                   <c:v>1800</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="9">
                   <c:v>1900</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="10">
                   <c:v>2000</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="11">
                   <c:v>2100</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="12">
                   <c:v>2200</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="13">
                   <c:v>2300</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="14">
                   <c:v>2400</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>2500</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="16">
                   <c:v>2600</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="17">
                   <c:v>2700</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="18">
                   <c:v>2800</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="19">
                   <c:v>2900</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="20">
                   <c:v>3000</c:v>
                 </c:pt>
               </c:numCache>
@@ -2167,10 +2377,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'สรุป ETH'!$R$55:$AE$55</c:f>
+              <c:f>'สรุป ETH'!$R$55:$AL$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2211,6 +2421,27 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0.14000000000000001</c:v>
                 </c:pt>
               </c:numCache>
@@ -2234,50 +2465,71 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'สรุป ETH'!$R$51:$AE$51</c:f>
+              <c:f>'สรุป ETH'!$R$51:$AL$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1700</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="8">
                   <c:v>1800</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="9">
                   <c:v>1900</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="10">
                   <c:v>2000</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="11">
                   <c:v>2100</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="12">
                   <c:v>2200</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="13">
                   <c:v>2300</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="14">
                   <c:v>2400</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>2500</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="16">
                   <c:v>2600</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="17">
                   <c:v>2700</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="18">
                   <c:v>2800</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="19">
                   <c:v>2900</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="20">
                   <c:v>3000</c:v>
                 </c:pt>
               </c:numCache>
@@ -2285,10 +2537,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'สรุป ETH'!$R$56:$AE$56</c:f>
+              <c:f>'สรุป ETH'!$R$56:$AL$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2329,6 +2581,27 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2352,50 +2625,71 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'สรุป ETH'!$R$51:$AE$51</c:f>
+              <c:f>'สรุป ETH'!$R$51:$AL$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1700</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="8">
                   <c:v>1800</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="9">
                   <c:v>1900</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="10">
                   <c:v>2000</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="11">
                   <c:v>2100</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="12">
                   <c:v>2200</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="13">
                   <c:v>2300</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="14">
                   <c:v>2400</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>2500</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="16">
                   <c:v>2600</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="17">
                   <c:v>2700</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="18">
                   <c:v>2800</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="19">
                   <c:v>2900</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="20">
                   <c:v>3000</c:v>
                 </c:pt>
               </c:numCache>
@@ -2403,10 +2697,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'สรุป ETH'!$R$57:$AE$57</c:f>
+              <c:f>'สรุป ETH'!$R$57:$AL$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2447,6 +2741,27 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0.248</c:v>
                 </c:pt>
               </c:numCache>
@@ -2470,50 +2785,71 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'สรุป ETH'!$R$51:$AE$51</c:f>
+              <c:f>'สรุป ETH'!$R$51:$AL$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1700</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="8">
                   <c:v>1800</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="9">
                   <c:v>1900</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="10">
                   <c:v>2000</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="11">
                   <c:v>2100</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="12">
                   <c:v>2200</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="13">
                   <c:v>2300</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="14">
                   <c:v>2400</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>2500</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="16">
                   <c:v>2600</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="17">
                   <c:v>2700</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="18">
                   <c:v>2800</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="19">
                   <c:v>2900</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="20">
                   <c:v>3000</c:v>
                 </c:pt>
               </c:numCache>
@@ -2521,10 +2857,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'สรุป ETH'!$R$58:$AE$58</c:f>
+              <c:f>'สรุป ETH'!$R$58:$AL$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2565,6 +2901,27 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0.16</c:v>
                 </c:pt>
               </c:numCache>
@@ -2588,50 +2945,71 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'สรุป ETH'!$R$51:$AE$51</c:f>
+              <c:f>'สรุป ETH'!$R$51:$AL$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1700</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="8">
                   <c:v>1800</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="9">
                   <c:v>1900</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="10">
                   <c:v>2000</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="11">
                   <c:v>2100</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="12">
                   <c:v>2200</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="13">
                   <c:v>2300</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="14">
                   <c:v>2400</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>2500</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="16">
                   <c:v>2600</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="17">
                   <c:v>2700</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="18">
                   <c:v>2800</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="19">
                   <c:v>2900</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="20">
                   <c:v>3000</c:v>
                 </c:pt>
               </c:numCache>
@@ -2639,10 +3017,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'สรุป ETH'!$R$59:$AE$59</c:f>
+              <c:f>'สรุป ETH'!$R$59:$AL$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2680,9 +3058,30 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>0.09</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="20">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2706,50 +3105,71 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'สรุป ETH'!$R$51:$AE$51</c:f>
+              <c:f>'สรุป ETH'!$R$51:$AL$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1700</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="8">
                   <c:v>1800</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="9">
                   <c:v>1900</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="10">
                   <c:v>2000</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="11">
                   <c:v>2100</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="12">
                   <c:v>2200</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="13">
                   <c:v>2300</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="14">
                   <c:v>2400</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>2500</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="16">
                   <c:v>2600</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="17">
                   <c:v>2700</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="18">
                   <c:v>2800</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="19">
                   <c:v>2900</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="20">
                   <c:v>3000</c:v>
                 </c:pt>
               </c:numCache>
@@ -2757,10 +3177,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'สรุป ETH'!$R$60:$AE$60</c:f>
+              <c:f>'สรุป ETH'!$R$60:$AL$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2798,9 +3218,30 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="20">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2824,50 +3265,71 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'สรุป ETH'!$R$51:$AE$51</c:f>
+              <c:f>'สรุป ETH'!$R$51:$AL$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1700</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="8">
                   <c:v>1800</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="9">
                   <c:v>1900</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="10">
                   <c:v>2000</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="11">
                   <c:v>2100</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="12">
                   <c:v>2200</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="13">
                   <c:v>2300</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="14">
                   <c:v>2400</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>2500</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="16">
                   <c:v>2600</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="17">
                   <c:v>2700</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="18">
                   <c:v>2800</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="19">
                   <c:v>2900</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="20">
                   <c:v>3000</c:v>
                 </c:pt>
               </c:numCache>
@@ -2875,10 +3337,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'สรุป ETH'!$R$61:$AE$61</c:f>
+              <c:f>'สรุป ETH'!$R$61:$AL$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2901,24 +3363,45 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2942,50 +3425,71 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'สรุป ETH'!$R$51:$AE$51</c:f>
+              <c:f>'สรุป ETH'!$R$51:$AL$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1700</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="8">
                   <c:v>1800</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="9">
                   <c:v>1900</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="10">
                   <c:v>2000</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="11">
                   <c:v>2100</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="12">
                   <c:v>2200</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="13">
                   <c:v>2300</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="14">
                   <c:v>2400</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>2500</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="16">
                   <c:v>2600</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="17">
                   <c:v>2700</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="18">
                   <c:v>2800</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="19">
                   <c:v>2900</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="20">
                   <c:v>3000</c:v>
                 </c:pt>
               </c:numCache>
@@ -2993,10 +3497,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'สรุป ETH'!$R$62:$AE$62</c:f>
+              <c:f>'สรุป ETH'!$R$62:$AL$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3007,29 +3511,29 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>1.07</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3037,6 +3541,27 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3060,50 +3585,71 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'สรุป ETH'!$R$51:$AE$51</c:f>
+              <c:f>'สรุป ETH'!$R$51:$AL$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1700</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="8">
                   <c:v>1800</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="9">
                   <c:v>1900</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="10">
                   <c:v>2000</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="11">
                   <c:v>2100</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="12">
                   <c:v>2200</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="13">
                   <c:v>2300</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="14">
                   <c:v>2400</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>2500</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="16">
                   <c:v>2600</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="17">
                   <c:v>2700</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="18">
                   <c:v>2800</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="19">
                   <c:v>2900</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="20">
                   <c:v>3000</c:v>
                 </c:pt>
               </c:numCache>
@@ -3111,50 +3657,1191 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'สรุป ETH'!$R$63:$AE$63</c:f>
+              <c:f>'สรุป ETH'!$R$63:$AL$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>1.6E-2</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'สรุป ETH'!$Q$64</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'สรุป ETH'!$R$51:$AL$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1100</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1300</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1600</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1700</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1900</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>2100</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>2200</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'สรุป ETH'!$R$64:$AL$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'สรุป ETH'!$Q$65</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'สรุป ETH'!$R$51:$AL$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'สรุป ETH'!$R$65:$AL$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'สรุป ETH'!$Q$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'สรุป ETH'!$R$51:$AL$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'สรุป ETH'!$R$66:$AL$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'สรุป ETH'!$Q$67</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'สรุป ETH'!$R$51:$AL$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'สรุป ETH'!$R$67:$AL$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="16"/>
+          <c:order val="16"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'สรุป ETH'!$Q$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'สรุป ETH'!$R$51:$AL$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'สรุป ETH'!$R$68:$AL$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="17"/>
+          <c:order val="17"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'สรุป ETH'!$Q$69</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'สรุป ETH'!$R$51:$AL$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'สรุป ETH'!$R$69:$AL$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="18"/>
+          <c:order val="18"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'สรุป ETH'!$Q$70</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'สรุป ETH'!$R$51:$AL$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'สรุป ETH'!$R$70:$AL$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3172,12 +4859,12 @@
         <c:gapWidth val="160"/>
         <c:gapDepth val="0"/>
         <c:shape val="box"/>
-        <c:axId val="116332800"/>
-        <c:axId val="116351360"/>
-        <c:axId val="115693760"/>
+        <c:axId val="112662400"/>
+        <c:axId val="112672768"/>
+        <c:axId val="112293184"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="116332800"/>
+        <c:axId val="112662400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3254,7 +4941,7 @@
             <a:endParaRPr lang="th-TH"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="116351360"/>
+        <c:crossAx val="112672768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3262,7 +4949,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116351360"/>
+        <c:axId val="112672768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3347,12 +5034,12 @@
             <a:endParaRPr lang="th-TH"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="116332800"/>
+        <c:crossAx val="112662400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="115693760"/>
+        <c:axId val="112293184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3428,7 +5115,7 @@
             <a:endParaRPr lang="th-TH"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="116351360"/>
+        <c:crossAx val="112672768"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
       <c:spPr>
@@ -3600,11 +5287,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="109591552"/>
-        <c:axId val="109613824"/>
+        <c:axId val="112333568"/>
+        <c:axId val="112335104"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="109591552"/>
+        <c:axId val="112333568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3614,7 +5301,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109613824"/>
+        <c:crossAx val="112335104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -3623,7 +5310,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="109613824"/>
+        <c:axId val="112335104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3634,7 +5321,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109591552"/>
+        <c:crossAx val="112333568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3776,11 +5463,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="109627648"/>
-        <c:axId val="109510656"/>
+        <c:axId val="113887872"/>
+        <c:axId val="113889664"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="109627648"/>
+        <c:axId val="113887872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3790,7 +5477,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109510656"/>
+        <c:crossAx val="113889664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -3799,7 +5486,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="109510656"/>
+        <c:axId val="113889664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3810,7 +5497,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109627648"/>
+        <c:crossAx val="113887872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4043,11 +5730,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="109540096"/>
-        <c:axId val="109541632"/>
+        <c:axId val="113900928"/>
+        <c:axId val="113783936"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="109540096"/>
+        <c:axId val="113900928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4057,14 +5744,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109541632"/>
+        <c:crossAx val="113783936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="109541632"/>
+        <c:axId val="113783936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4075,7 +5762,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109540096"/>
+        <c:crossAx val="113900928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4166,10 +5853,10 @@
       <xdr:rowOff>65087</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>130174</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>87312</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4196,7 +5883,7 @@
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -4605,10 +6292,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A47:AF71"/>
+  <dimension ref="A47:AM71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="I79" sqref="I79"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="N76" sqref="N76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4652,7 +6339,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>122</v>
       </c>
@@ -4666,7 +6353,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>122</v>
       </c>
@@ -4680,7 +6367,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="51" spans="1:32" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:39" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
@@ -4730,62 +6417,83 @@
         <v>34</v>
       </c>
       <c r="R51" s="30">
+        <v>1000</v>
+      </c>
+      <c r="S51" s="30">
+        <v>1100</v>
+      </c>
+      <c r="T51" s="30">
+        <v>1200</v>
+      </c>
+      <c r="U51" s="30">
+        <v>1300</v>
+      </c>
+      <c r="V51" s="30">
+        <v>1400</v>
+      </c>
+      <c r="W51" s="30">
+        <v>1500</v>
+      </c>
+      <c r="X51" s="30">
+        <v>1600</v>
+      </c>
+      <c r="Y51" s="30">
         <v>1700</v>
       </c>
-      <c r="S51" s="30">
-        <f>R51+100</f>
+      <c r="Z51" s="30">
+        <f>Y51+100</f>
         <v>1800</v>
       </c>
-      <c r="T51" s="30">
-        <f t="shared" ref="T51:AE51" si="0">S51+100</f>
+      <c r="AA51" s="30">
+        <f t="shared" ref="AA51:AL51" si="0">Z51+100</f>
         <v>1900</v>
       </c>
-      <c r="U51" s="30">
+      <c r="AB51" s="30">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="V51" s="30">
+      <c r="AC51" s="30">
         <f t="shared" si="0"/>
         <v>2100</v>
       </c>
-      <c r="W51" s="30">
+      <c r="AD51" s="30">
         <f t="shared" si="0"/>
         <v>2200</v>
       </c>
-      <c r="X51" s="30">
+      <c r="AE51" s="30">
         <f t="shared" si="0"/>
         <v>2300</v>
       </c>
-      <c r="Y51" s="30">
+      <c r="AF51" s="30">
         <f t="shared" si="0"/>
         <v>2400</v>
       </c>
-      <c r="Z51" s="30">
+      <c r="AG51" s="30">
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="AA51" s="30">
+      <c r="AH51" s="30">
         <f t="shared" si="0"/>
         <v>2600</v>
       </c>
-      <c r="AB51" s="30">
+      <c r="AI51" s="30">
         <f t="shared" si="0"/>
         <v>2700</v>
       </c>
-      <c r="AC51" s="30">
+      <c r="AJ51" s="30">
         <f t="shared" si="0"/>
         <v>2800</v>
       </c>
-      <c r="AD51" s="30">
+      <c r="AK51" s="30">
         <f t="shared" si="0"/>
         <v>2900</v>
       </c>
-      <c r="AE51" s="30">
+      <c r="AL51" s="30">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
     </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A52" s="14">
         <v>44562</v>
       </c>
@@ -4827,63 +6535,91 @@
         <v>161</v>
       </c>
       <c r="R52" s="31">
-        <f>SUM(R53:R92)</f>
-        <v>0</v>
+        <f t="shared" ref="R52:X52" si="1">SUM(R53:R92)</f>
+        <v>8.1</v>
       </c>
       <c r="S52" s="31">
-        <f>SUM(S53:S92)</f>
-        <v>1.6E-2</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="T52" s="31">
-        <f>SUM(T53:T92)</f>
-        <v>0.7</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="U52" s="31">
-        <f>SUM(U53:U64)</f>
-        <v>1.07</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="V52" s="31">
-        <f>SUM(V53:V92)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="W52" s="31">
-        <f>SUM(W53:W92)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="X52" s="31">
-        <f>SUM(X53:X92)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y52" s="31">
-        <f>SUM(Y53:Y70)</f>
-        <v>0.8</v>
+        <f>SUM(Y53:Y92)</f>
+        <v>0</v>
       </c>
       <c r="Z52" s="31">
         <f>SUM(Z53:Z92)</f>
-        <v>0</v>
+        <v>1.6E-2</v>
       </c>
       <c r="AA52" s="31">
         <f>SUM(AA53:AA92)</f>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="AB52" s="31">
-        <f>SUM(AB53:AB92)</f>
-        <v>0</v>
+        <f>SUM(AB53:AB64)</f>
+        <v>1.07</v>
       </c>
       <c r="AC52" s="31">
         <f>SUM(AC53:AC92)</f>
         <v>0</v>
       </c>
       <c r="AD52" s="31">
-        <f>SUM(AD53:AD70)</f>
+        <f>SUM(AD53:AD92)</f>
+        <v>0</v>
+      </c>
+      <c r="AE52" s="31">
+        <f>SUM(AE53:AE92)</f>
+        <v>0</v>
+      </c>
+      <c r="AF52" s="31">
+        <f>SUM(AF53:AF70)</f>
+        <v>0.8</v>
+      </c>
+      <c r="AG52" s="31">
+        <f>SUM(AG53:AG92)</f>
+        <v>0</v>
+      </c>
+      <c r="AH52" s="31">
+        <f>SUM(AH53:AH92)</f>
+        <v>0</v>
+      </c>
+      <c r="AI52" s="31">
+        <f>SUM(AI53:AI92)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ52" s="31">
+        <f>SUM(AJ53:AJ92)</f>
+        <v>0</v>
+      </c>
+      <c r="AK52" s="31">
+        <f>SUM(AK53:AK70)</f>
         <v>0.29000000000000004</v>
       </c>
-      <c r="AE52" s="31">
-        <f>SUM(AE53:AE58)</f>
+      <c r="AL52" s="31">
+        <f>SUM(AL53:AL58)</f>
         <v>2.5780000000000003</v>
       </c>
     </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A53" s="14">
         <v>44638</v>
       </c>
@@ -4910,7 +6646,7 @@
         <v>1.1899999999999995</v>
       </c>
       <c r="I53" s="9">
-        <f t="shared" ref="I53:I65" si="1">I52+H53</f>
+        <f t="shared" ref="I53:I66" si="2">I52+H53</f>
         <v>1.1899999999999995</v>
       </c>
       <c r="J53" s="9">
@@ -4920,15 +6656,15 @@
         <v>3513.4650000000001</v>
       </c>
       <c r="L53" s="24">
-        <f t="shared" ref="L53:L59" si="2">(J53*M53)-(J53*K53)</f>
-        <v>-17.75540500000001</v>
+        <f>(J53*M53)-(J53*K53)+I53</f>
+        <v>-16.565405000000013</v>
       </c>
       <c r="M53" s="9">
         <v>2940.71</v>
       </c>
       <c r="N53" s="23">
         <f>L53/G48</f>
-        <v>-2.5695231548480479E-2</v>
+        <v>-2.3973089725036197E-2</v>
       </c>
       <c r="O53" s="23">
         <f>((M53-M52)/M52)</f>
@@ -4977,11 +6713,32 @@
         <v>0</v>
       </c>
       <c r="AE53" s="32">
+        <v>0</v>
+      </c>
+      <c r="AF53" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG53" s="32">
+        <v>0</v>
+      </c>
+      <c r="AH53" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI53" s="32">
+        <v>0</v>
+      </c>
+      <c r="AJ53" s="32">
+        <v>0</v>
+      </c>
+      <c r="AK53" s="32">
+        <v>0</v>
+      </c>
+      <c r="AL53" s="32">
         <v>1.19</v>
       </c>
-      <c r="AF53" s="34"/>
-    </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AM53" s="34"/>
+    </row>
+    <row r="54" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A54" s="14">
         <v>44649</v>
       </c>
@@ -5008,7 +6765,7 @@
         <v>0.83999999999999986</v>
       </c>
       <c r="I54" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.0299999999999994</v>
       </c>
       <c r="J54" s="9">
@@ -5018,15 +6775,15 @@
         <v>3628.2249999999999</v>
       </c>
       <c r="L54" s="24">
-        <f t="shared" si="2"/>
-        <v>-5.4294000000000011</v>
+        <f t="shared" ref="L54:L66" si="3">(J54*M54)-(J54*K54)+I54</f>
+        <v>-3.3994000000000018</v>
       </c>
       <c r="M54" s="9">
         <v>3402</v>
       </c>
       <c r="N54" s="23">
         <f>L54/G48</f>
-        <v>-7.8573082489146184E-3</v>
+        <v>-4.9195369030390762E-3</v>
       </c>
       <c r="O54" s="23">
         <f>((M54-M52)/M52)</f>
@@ -5075,10 +6832,31 @@
         <v>0</v>
       </c>
       <c r="AE54" s="32">
+        <v>0</v>
+      </c>
+      <c r="AF54" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG54" s="32">
+        <v>0</v>
+      </c>
+      <c r="AH54" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI54" s="32">
+        <v>0</v>
+      </c>
+      <c r="AJ54" s="32">
+        <v>0</v>
+      </c>
+      <c r="AK54" s="32">
+        <v>0</v>
+      </c>
+      <c r="AL54" s="32">
         <v>0.84</v>
       </c>
     </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A55" s="14">
         <v>44655</v>
       </c>
@@ -5105,7 +6883,7 @@
         <v>0.14000000000000057</v>
       </c>
       <c r="I55" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.17</v>
       </c>
       <c r="J55" s="9">
@@ -5115,15 +6893,15 @@
         <v>3643.518</v>
       </c>
       <c r="L55" s="24">
-        <f t="shared" si="2"/>
-        <v>-2.7173959999999937</v>
+        <f t="shared" si="3"/>
+        <v>-0.54739599999999378</v>
       </c>
       <c r="M55" s="9">
         <v>3520</v>
       </c>
       <c r="N55" s="23">
         <f>L55/G48</f>
-        <v>-3.9325557163531026E-3</v>
+        <v>-7.9217945007234989E-4</v>
       </c>
       <c r="O55" s="23">
         <f>((M55-M52)/M52)</f>
@@ -5172,10 +6950,31 @@
         <v>0</v>
       </c>
       <c r="AE55" s="32">
+        <v>0</v>
+      </c>
+      <c r="AF55" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG55" s="32">
+        <v>0</v>
+      </c>
+      <c r="AH55" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI55" s="32">
+        <v>0</v>
+      </c>
+      <c r="AJ55" s="32">
+        <v>0</v>
+      </c>
+      <c r="AK55" s="32">
+        <v>0</v>
+      </c>
+      <c r="AL55" s="32">
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A56" s="14">
         <v>44662</v>
       </c>
@@ -5201,7 +7000,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.17</v>
       </c>
       <c r="J56" s="9">
@@ -5211,15 +7010,15 @@
         <v>3491.748</v>
       </c>
       <c r="L56" s="24">
-        <f t="shared" si="2"/>
-        <v>-25.637399999999985</v>
+        <f t="shared" si="3"/>
+        <v>-23.467399999999984</v>
       </c>
       <c r="M56" s="9">
         <v>2979</v>
       </c>
       <c r="N56" s="23">
         <f>L56/G48</f>
-        <v>-3.7101881331403741E-2</v>
+        <v>-3.3961505065122986E-2</v>
       </c>
       <c r="O56" s="23">
         <f>((M56-M52)/M52)</f>
@@ -5270,8 +7069,29 @@
       <c r="AE56" s="32">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AF56" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG56" s="32">
+        <v>0</v>
+      </c>
+      <c r="AH56" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI56" s="32">
+        <v>0</v>
+      </c>
+      <c r="AJ56" s="32">
+        <v>0</v>
+      </c>
+      <c r="AK56" s="32">
+        <v>0</v>
+      </c>
+      <c r="AL56" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A57" s="14">
         <v>44669</v>
       </c>
@@ -5294,11 +7114,11 @@
         <v>2E-3</v>
       </c>
       <c r="H57" s="9">
-        <f t="shared" ref="H57:H65" si="3">(D57*E57) - (B57*C57)</f>
+        <f t="shared" ref="H57:H66" si="4">(D57*E57) - (B57*C57)</f>
         <v>0.24799999999999933</v>
       </c>
       <c r="I57" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.4179999999999993</v>
       </c>
       <c r="J57" s="9">
@@ -5308,15 +7128,15 @@
         <v>3482.1060000000002</v>
       </c>
       <c r="L57" s="24">
-        <f t="shared" si="2"/>
-        <v>-21.711005999999998</v>
+        <f t="shared" si="3"/>
+        <v>-19.293005999999998</v>
       </c>
       <c r="M57" s="9">
         <v>3056.4</v>
       </c>
       <c r="N57" s="23">
         <f>L57/G48</f>
-        <v>-3.1419690303907379E-2</v>
+        <v>-2.7920413892908825E-2</v>
       </c>
       <c r="O57" s="23">
         <f>((M57-M52)/M52)</f>
@@ -5365,10 +7185,31 @@
         <v>0</v>
       </c>
       <c r="AE57" s="32">
+        <v>0</v>
+      </c>
+      <c r="AF57" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG57" s="32">
+        <v>0</v>
+      </c>
+      <c r="AH57" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI57" s="32">
+        <v>0</v>
+      </c>
+      <c r="AJ57" s="32">
+        <v>0</v>
+      </c>
+      <c r="AK57" s="32">
+        <v>0</v>
+      </c>
+      <c r="AL57" s="32">
         <v>0.248</v>
       </c>
     </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A58" s="14">
         <v>44675</v>
       </c>
@@ -5392,11 +7233,11 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="H58" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.16000000000000014</v>
       </c>
       <c r="I58" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.5779999999999994</v>
       </c>
       <c r="J58" s="9">
@@ -5406,15 +7247,15 @@
         <v>3399.9549999999999</v>
       </c>
       <c r="L58" s="24">
-        <f>(J58*M58)-(J58*K58)</f>
-        <v>-27.761989999999997</v>
+        <f t="shared" si="3"/>
+        <v>-25.183989999999998</v>
       </c>
       <c r="M58" s="9">
         <v>2921.3</v>
       </c>
       <c r="N58" s="23">
         <f>L58/G48</f>
-        <v>-4.017654124457308E-2</v>
+        <v>-3.6445716353111432E-2</v>
       </c>
       <c r="O58" s="23">
         <f>((M58-M52)/M52)</f>
@@ -5463,10 +7304,31 @@
         <v>0</v>
       </c>
       <c r="AE58" s="32">
+        <v>0</v>
+      </c>
+      <c r="AF58" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG58" s="32">
+        <v>0</v>
+      </c>
+      <c r="AH58" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI58" s="32">
+        <v>0</v>
+      </c>
+      <c r="AJ58" s="32">
+        <v>0</v>
+      </c>
+      <c r="AK58" s="32">
+        <v>0</v>
+      </c>
+      <c r="AL58" s="32">
         <v>0.16</v>
       </c>
     </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A59" s="14">
         <v>44683</v>
       </c>
@@ -5489,11 +7351,11 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H59" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.9999999999999858E-2</v>
       </c>
       <c r="I59" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.6679999999999993</v>
       </c>
       <c r="J59" s="9">
@@ -5503,15 +7365,15 @@
         <v>3287.2869999999998</v>
       </c>
       <c r="L59" s="24">
-        <f t="shared" si="2"/>
-        <v>-24.728376999999995</v>
+        <f t="shared" si="3"/>
+        <v>-22.060376999999995</v>
       </c>
       <c r="M59" s="9">
         <v>2939</v>
       </c>
       <c r="N59" s="23">
         <f>L59/G48</f>
-        <v>-3.578636324167872E-2</v>
+        <v>-3.1925292329956577E-2</v>
       </c>
       <c r="O59" s="23">
         <f>((M59-M52)/M52)</f>
@@ -5557,13 +7419,34 @@
         <v>0</v>
       </c>
       <c r="AD59" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE59" s="32">
+        <v>0</v>
+      </c>
+      <c r="AF59" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG59" s="32">
+        <v>0</v>
+      </c>
+      <c r="AH59" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI59" s="32">
+        <v>0</v>
+      </c>
+      <c r="AJ59" s="32">
+        <v>0</v>
+      </c>
+      <c r="AK59" s="32">
         <v>0.09</v>
       </c>
-      <c r="AE59" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL59" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A60" s="14">
         <v>44690</v>
       </c>
@@ -5586,11 +7469,11 @@
         <v>2E-3</v>
       </c>
       <c r="H60" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.19999999999999929</v>
       </c>
       <c r="I60" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.8679999999999986</v>
       </c>
       <c r="J60" s="9">
@@ -5600,15 +7483,15 @@
         <v>2971.68</v>
       </c>
       <c r="L60" s="24">
-        <f>(J60*M60)-(J60*K60)</f>
-        <v>-80.263440000000003</v>
+        <f t="shared" si="3"/>
+        <v>-77.395440000000008</v>
       </c>
       <c r="M60" s="9">
         <v>2228.5</v>
       </c>
       <c r="N60" s="23">
         <f>L60/G48</f>
-        <v>-0.11615548480463098</v>
+        <v>-0.11200497829232997</v>
       </c>
       <c r="O60" s="23">
         <f>((M60-M52)/M52)</f>
@@ -5654,13 +7537,34 @@
         <v>0</v>
       </c>
       <c r="AD60" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE60" s="32">
+        <v>0</v>
+      </c>
+      <c r="AF60" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG60" s="32">
+        <v>0</v>
+      </c>
+      <c r="AH60" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI60" s="32">
+        <v>0</v>
+      </c>
+      <c r="AJ60" s="32">
+        <v>0</v>
+      </c>
+      <c r="AK60" s="32">
         <v>0.2</v>
       </c>
-      <c r="AE60" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AL60" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A61" s="14">
         <v>44697</v>
       </c>
@@ -5683,11 +7587,11 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="H61" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.79999999999999893</v>
       </c>
       <c r="I61" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.6679999999999975</v>
       </c>
       <c r="J61" s="9">
@@ -5697,15 +7601,15 @@
         <v>2847.5309999999999</v>
       </c>
       <c r="L61" s="24">
-        <f>(J61*M61)-(J61*K61)</f>
-        <v>-103.32887499999998</v>
+        <f t="shared" si="3"/>
+        <v>-99.66087499999999</v>
       </c>
       <c r="M61" s="9">
         <v>2020.9</v>
       </c>
       <c r="N61" s="23">
         <f>L61/G48</f>
-        <v>-0.14953527496382052</v>
+        <v>-0.14422702604920404</v>
       </c>
       <c r="O61" s="23">
         <f>((M61-M52)/M52)</f>
@@ -5736,28 +7640,49 @@
         <v>0</v>
       </c>
       <c r="Y61" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="32">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="32">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="32">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="32">
+        <v>0</v>
+      </c>
+      <c r="AF61" s="32">
         <v>0.8</v>
       </c>
-      <c r="Z61" s="32">
-        <v>0</v>
-      </c>
-      <c r="AA61" s="32">
-        <v>0</v>
-      </c>
-      <c r="AB61" s="32">
-        <v>0</v>
-      </c>
-      <c r="AC61" s="32">
-        <v>0</v>
-      </c>
-      <c r="AD61" s="32">
-        <v>0</v>
-      </c>
-      <c r="AE61" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG61" s="32">
+        <v>0</v>
+      </c>
+      <c r="AH61" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI61" s="32">
+        <v>0</v>
+      </c>
+      <c r="AJ61" s="32">
+        <v>0</v>
+      </c>
+      <c r="AK61" s="32">
+        <v>0</v>
+      </c>
+      <c r="AL61" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A62" s="14">
         <v>44704</v>
       </c>
@@ -5780,11 +7705,11 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="H62" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0700040000000008</v>
       </c>
       <c r="I62" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.7380039999999983</v>
       </c>
       <c r="J62" s="9">
@@ -5794,15 +7719,15 @@
         <v>2872.2429999999999</v>
       </c>
       <c r="L62" s="24">
-        <f>(J62*M62)-(J62*K62)</f>
-        <v>-109.04314300000001</v>
+        <f t="shared" si="3"/>
+        <v>-104.30513900000001</v>
       </c>
       <c r="M62" s="9">
         <v>1971.06</v>
       </c>
       <c r="N62" s="23">
         <f>L62/G48</f>
-        <v>-0.1578048379160637</v>
+        <v>-0.15094810274963821</v>
       </c>
       <c r="O62" s="23">
         <f>((M62-M52)/M52)</f>
@@ -5821,29 +7746,29 @@
         <v>0</v>
       </c>
       <c r="U62" s="32">
+        <v>0</v>
+      </c>
+      <c r="V62" s="32">
+        <v>0</v>
+      </c>
+      <c r="W62" s="32">
+        <v>0</v>
+      </c>
+      <c r="X62" s="32">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="32">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="32">
         <v>1.07</v>
       </c>
-      <c r="V62" s="32">
-        <v>0</v>
-      </c>
-      <c r="W62" s="32">
-        <v>0</v>
-      </c>
-      <c r="X62" s="32">
-        <v>0</v>
-      </c>
-      <c r="Y62" s="32">
-        <v>0</v>
-      </c>
-      <c r="Z62" s="32">
-        <v>0</v>
-      </c>
-      <c r="AA62" s="32">
-        <v>0</v>
-      </c>
-      <c r="AB62" s="32">
-        <v>0</v>
-      </c>
       <c r="AC62" s="32">
         <v>0</v>
       </c>
@@ -5853,8 +7778,29 @@
       <c r="AE62" s="32">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AF62" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG62" s="32">
+        <v>0</v>
+      </c>
+      <c r="AH62" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI62" s="32">
+        <v>0</v>
+      </c>
+      <c r="AJ62" s="32">
+        <v>0</v>
+      </c>
+      <c r="AK62" s="32">
+        <v>0</v>
+      </c>
+      <c r="AL62" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A63" s="14">
         <v>44711</v>
       </c>
@@ -5877,11 +7823,11 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="H63" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.6000000000000014E-2</v>
       </c>
       <c r="I63" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.7540039999999983</v>
       </c>
       <c r="J63" s="9">
@@ -5890,16 +7836,16 @@
       <c r="K63" s="9">
         <v>2793.614</v>
       </c>
-      <c r="L63" s="9">
-        <f>(J63*M63)-(J63*K63)</f>
-        <v>-111.78413399999999</v>
+      <c r="L63" s="24">
+        <f t="shared" si="3"/>
+        <v>-107.03013</v>
       </c>
       <c r="M63" s="9">
         <v>1940.3</v>
       </c>
       <c r="N63" s="23">
         <f>L63/G48</f>
-        <v>-0.16177153979739506</v>
+        <v>-0.1548916497829233</v>
       </c>
       <c r="O63" s="23">
         <f>((M63-M52)/M52)</f>
@@ -5912,29 +7858,29 @@
         <v>0</v>
       </c>
       <c r="S63" s="32">
+        <v>0</v>
+      </c>
+      <c r="T63" s="32">
+        <v>0</v>
+      </c>
+      <c r="U63" s="32">
+        <v>0</v>
+      </c>
+      <c r="V63" s="32">
+        <v>0</v>
+      </c>
+      <c r="W63" s="32">
+        <v>0</v>
+      </c>
+      <c r="X63" s="32">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="32">
         <v>1.6E-2</v>
       </c>
-      <c r="T63" s="32">
-        <v>0</v>
-      </c>
-      <c r="U63" s="32">
-        <v>0</v>
-      </c>
-      <c r="V63" s="32">
-        <v>0</v>
-      </c>
-      <c r="W63" s="32">
-        <v>0</v>
-      </c>
-      <c r="X63" s="32">
-        <v>0</v>
-      </c>
-      <c r="Y63" s="32">
-        <v>0</v>
-      </c>
-      <c r="Z63" s="32">
-        <v>0</v>
-      </c>
       <c r="AA63" s="32">
         <v>0</v>
       </c>
@@ -5950,8 +7896,29 @@
       <c r="AE63" s="32">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AF63" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG63" s="32">
+        <v>0</v>
+      </c>
+      <c r="AH63" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI63" s="32">
+        <v>0</v>
+      </c>
+      <c r="AJ63" s="32">
+        <v>0</v>
+      </c>
+      <c r="AK63" s="32">
+        <v>0</v>
+      </c>
+      <c r="AL63" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A64" s="14">
         <v>44718</v>
       </c>
@@ -5974,11 +7941,11 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="H64" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.70000000000000107</v>
       </c>
       <c r="I64" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.4540039999999994</v>
       </c>
       <c r="J64" s="9">
@@ -5987,10 +7954,21 @@
       <c r="K64" s="9">
         <v>2793.614</v>
       </c>
-      <c r="L64" s="9"/>
-      <c r="M64" s="9"/>
-      <c r="N64" s="9"/>
-      <c r="O64" s="9"/>
+      <c r="L64" s="24">
+        <f t="shared" si="3"/>
+        <v>-117.07213000000002</v>
+      </c>
+      <c r="M64" s="9">
+        <v>1858.3</v>
+      </c>
+      <c r="N64" s="23">
+        <f>L64/G48</f>
+        <v>-0.16942421128798846</v>
+      </c>
+      <c r="O64" s="23">
+        <f>((M64-M52)/M52)</f>
+        <v>-0.45979651162790697</v>
+      </c>
       <c r="Q64" s="32">
         <v>12</v>
       </c>
@@ -6001,29 +7979,29 @@
         <v>0</v>
       </c>
       <c r="T64" s="32">
+        <v>0</v>
+      </c>
+      <c r="U64" s="32">
+        <v>0</v>
+      </c>
+      <c r="V64" s="32">
+        <v>0</v>
+      </c>
+      <c r="W64" s="32">
+        <v>0</v>
+      </c>
+      <c r="X64" s="32">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="32">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="32">
         <v>0.7</v>
       </c>
-      <c r="U64" s="32">
-        <v>0</v>
-      </c>
-      <c r="V64" s="32">
-        <v>0</v>
-      </c>
-      <c r="W64" s="32">
-        <v>0</v>
-      </c>
-      <c r="X64" s="32">
-        <v>0</v>
-      </c>
-      <c r="Y64" s="32">
-        <v>0</v>
-      </c>
-      <c r="Z64" s="32">
-        <v>0</v>
-      </c>
-      <c r="AA64" s="32">
-        <v>0</v>
-      </c>
       <c r="AB64" s="32">
         <v>0</v>
       </c>
@@ -6036,8 +8014,29 @@
       <c r="AE64" s="32">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG64" s="32">
+        <v>0</v>
+      </c>
+      <c r="AH64" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI64" s="32">
+        <v>0</v>
+      </c>
+      <c r="AJ64" s="32">
+        <v>0</v>
+      </c>
+      <c r="AK64" s="32">
+        <v>0</v>
+      </c>
+      <c r="AL64" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A65" s="14">
         <v>44725</v>
       </c>
@@ -6060,11 +8059,11 @@
         <v>0</v>
       </c>
       <c r="H65" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I65" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.4540039999999994</v>
       </c>
       <c r="J65" s="9">
@@ -6073,10 +8072,21 @@
       <c r="K65" s="9">
         <v>2275.7860000000001</v>
       </c>
-      <c r="L65" s="9"/>
-      <c r="M65" s="9"/>
-      <c r="N65" s="9"/>
-      <c r="O65" s="9"/>
+      <c r="L65" s="24">
+        <f t="shared" si="3"/>
+        <v>-216.770284</v>
+      </c>
+      <c r="M65" s="9">
+        <v>1207.4000000000001</v>
+      </c>
+      <c r="N65" s="23">
+        <f>L65/G48</f>
+        <v>-0.31370518668596237</v>
+      </c>
+      <c r="O65" s="23">
+        <f>((M65-M52)/M52)</f>
+        <v>-0.64901162790697675</v>
+      </c>
       <c r="Q65" s="32">
         <v>13</v>
       </c>
@@ -6122,30 +8132,84 @@
       <c r="AE65" s="32">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG65" s="32">
+        <v>0</v>
+      </c>
+      <c r="AH65" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI65" s="32">
+        <v>0</v>
+      </c>
+      <c r="AJ65" s="32">
+        <v>0</v>
+      </c>
+      <c r="AK65" s="32">
+        <v>0</v>
+      </c>
+      <c r="AL65" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A66" s="14">
         <v>44732</v>
       </c>
-      <c r="B66" s="9"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="9"/>
-      <c r="J66" s="9"/>
-      <c r="K66" s="9"/>
-      <c r="L66" s="9"/>
-      <c r="M66" s="9"/>
-      <c r="N66" s="9"/>
-      <c r="O66" s="9"/>
+      <c r="B66" s="9">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="C66" s="9">
+        <v>900</v>
+      </c>
+      <c r="D66" s="9">
+        <v>-4.4999999999999998E-2</v>
+      </c>
+      <c r="E66" s="9">
+        <v>-1080</v>
+      </c>
+      <c r="F66" s="9">
+        <v>14</v>
+      </c>
+      <c r="G66" s="9">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="H66" s="9">
+        <f t="shared" si="4"/>
+        <v>8.1000000000000014</v>
+      </c>
+      <c r="I66" s="9">
+        <f t="shared" si="2"/>
+        <v>13.554004000000001</v>
+      </c>
+      <c r="J66" s="9">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="K66" s="9">
+        <v>2133.4630000000002</v>
+      </c>
+      <c r="L66" s="24">
+        <f t="shared" si="3"/>
+        <v>-219.92221200000009</v>
+      </c>
+      <c r="M66" s="9">
+        <v>1127.0999999999999</v>
+      </c>
+      <c r="N66" s="23">
+        <f>L66/G48</f>
+        <v>-0.31826658755426929</v>
+      </c>
+      <c r="O66" s="23">
+        <f>((M66-M52)/M52)</f>
+        <v>-0.6723546511627907</v>
+      </c>
       <c r="Q66" s="32">
         <v>14</v>
       </c>
       <c r="R66" s="32">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="S66" s="32">
         <v>0</v>
@@ -6186,9 +8250,32 @@
       <c r="AE66" s="32">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A67" s="9"/>
+      <c r="AF66" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG66" s="32">
+        <v>0</v>
+      </c>
+      <c r="AH66" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI66" s="32">
+        <v>0</v>
+      </c>
+      <c r="AJ66" s="32">
+        <v>0</v>
+      </c>
+      <c r="AK66" s="32">
+        <v>0</v>
+      </c>
+      <c r="AL66" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A67" s="14">
+        <v>44739</v>
+      </c>
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
@@ -6248,8 +8335,29 @@
       <c r="AE67" s="32">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG67" s="32">
+        <v>0</v>
+      </c>
+      <c r="AH67" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI67" s="32">
+        <v>0</v>
+      </c>
+      <c r="AJ67" s="32">
+        <v>0</v>
+      </c>
+      <c r="AK67" s="32">
+        <v>0</v>
+      </c>
+      <c r="AL67" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A68" s="9"/>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
@@ -6310,8 +8418,29 @@
       <c r="AE68" s="32">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG68" s="32">
+        <v>0</v>
+      </c>
+      <c r="AH68" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI68" s="32">
+        <v>0</v>
+      </c>
+      <c r="AJ68" s="32">
+        <v>0</v>
+      </c>
+      <c r="AK68" s="32">
+        <v>0</v>
+      </c>
+      <c r="AL68" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A69" s="9"/>
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
@@ -6372,8 +8501,29 @@
       <c r="AE69" s="32">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG69" s="32">
+        <v>0</v>
+      </c>
+      <c r="AH69" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI69" s="32">
+        <v>0</v>
+      </c>
+      <c r="AJ69" s="32">
+        <v>0</v>
+      </c>
+      <c r="AK69" s="32">
+        <v>0</v>
+      </c>
+      <c r="AL69" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A70" s="9"/>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
@@ -6434,9 +8584,30 @@
       <c r="AE70" s="32">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="AE71" s="33"/>
+      <c r="AF70" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG70" s="32">
+        <v>0</v>
+      </c>
+      <c r="AH70" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI70" s="32">
+        <v>0</v>
+      </c>
+      <c r="AJ70" s="32">
+        <v>0</v>
+      </c>
+      <c r="AK70" s="32">
+        <v>0</v>
+      </c>
+      <c r="AL70" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="AL71" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6449,7 +8620,7 @@
   <dimension ref="A1:K59"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="J49" sqref="J49"/>
+      <selection activeCell="A58" sqref="A58:G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7822,10 +9993,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O271"/>
+  <dimension ref="A1:O275"/>
   <sheetViews>
-    <sheetView topLeftCell="A267" workbookViewId="0">
-      <selection activeCell="C284" sqref="C284"/>
+    <sheetView topLeftCell="A263" workbookViewId="0">
+      <selection activeCell="C279" sqref="C279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8147,12 +10318,12 @@
       </c>
     </row>
     <row r="12" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
       <c r="E12" s="15" t="s">
         <v>11</v>
       </c>
@@ -8491,12 +10662,12 @@
       </c>
     </row>
     <row r="24" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
       <c r="E24" s="15" t="s">
         <v>11</v>
       </c>
@@ -8695,12 +10866,12 @@
       </c>
     </row>
     <row r="31" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
       <c r="E31" s="15" t="s">
         <v>11</v>
       </c>
@@ -9022,12 +11193,12 @@
       <c r="M42" s="13"/>
     </row>
     <row r="43" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="38" t="s">
+      <c r="A43" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B43" s="38"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="38"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="39"/>
       <c r="E43" s="15" t="s">
         <v>11</v>
       </c>
@@ -9496,12 +11667,12 @@
       </c>
     </row>
     <row r="60" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="38" t="s">
+      <c r="A60" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B60" s="38"/>
-      <c r="C60" s="38"/>
-      <c r="D60" s="38"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="39"/>
       <c r="E60" s="15" t="s">
         <v>11</v>
       </c>
@@ -9943,12 +12114,12 @@
       </c>
     </row>
     <row r="76" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="38" t="s">
+      <c r="A76" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B76" s="38"/>
-      <c r="C76" s="38"/>
-      <c r="D76" s="38"/>
+      <c r="B76" s="39"/>
+      <c r="C76" s="39"/>
+      <c r="D76" s="39"/>
       <c r="E76" s="15" t="s">
         <v>11</v>
       </c>
@@ -10417,12 +12588,12 @@
       </c>
     </row>
     <row r="93" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="38" t="s">
+      <c r="A93" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B93" s="38"/>
-      <c r="C93" s="38"/>
-      <c r="D93" s="38"/>
+      <c r="B93" s="39"/>
+      <c r="C93" s="39"/>
+      <c r="D93" s="39"/>
       <c r="E93" s="15" t="s">
         <v>11</v>
       </c>
@@ -10999,12 +13170,12 @@
       </c>
     </row>
     <row r="114" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="38" t="s">
+      <c r="A114" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B114" s="38"/>
-      <c r="C114" s="38"/>
-      <c r="D114" s="38"/>
+      <c r="B114" s="39"/>
+      <c r="C114" s="39"/>
+      <c r="D114" s="39"/>
       <c r="E114" s="15" t="s">
         <v>11</v>
       </c>
@@ -15129,7 +17300,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H263">
-        <f t="shared" ref="H263:H271" si="36">F263*G263</f>
+        <f t="shared" ref="H263:H273" si="36">F263*G263</f>
         <v>11</v>
       </c>
     </row>
@@ -15347,6 +17518,126 @@
       <c r="H271">
         <f t="shared" si="36"/>
         <v>50.400000000000006</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A272">
+        <v>8703643691</v>
+      </c>
+      <c r="B272">
+        <v>1655582877492</v>
+      </c>
+      <c r="C272" t="s">
+        <v>177</v>
+      </c>
+      <c r="D272" t="s">
+        <v>10</v>
+      </c>
+      <c r="E272" t="s">
+        <v>11</v>
+      </c>
+      <c r="F272">
+        <v>900</v>
+      </c>
+      <c r="G272">
+        <v>2.4E-2</v>
+      </c>
+      <c r="H272">
+        <f t="shared" si="36"/>
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A273">
+        <v>8703643691</v>
+      </c>
+      <c r="B273">
+        <v>1655582877492</v>
+      </c>
+      <c r="C273" t="s">
+        <v>177</v>
+      </c>
+      <c r="D273" t="s">
+        <v>10</v>
+      </c>
+      <c r="E273" t="s">
+        <v>11</v>
+      </c>
+      <c r="F273">
+        <v>900</v>
+      </c>
+      <c r="G273">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="H273">
+        <f t="shared" si="36"/>
+        <v>40.5</v>
+      </c>
+      <c r="I273" s="18">
+        <v>44732</v>
+      </c>
+      <c r="J273" s="12">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="K273" s="12">
+        <v>900</v>
+      </c>
+      <c r="L273" s="13">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="M273" s="13">
+        <f>SUM(H274)/L273</f>
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A274">
+        <v>8728761695</v>
+      </c>
+      <c r="B274">
+        <v>1655688567213</v>
+      </c>
+      <c r="C274" t="s">
+        <v>178</v>
+      </c>
+      <c r="D274" t="s">
+        <v>10</v>
+      </c>
+      <c r="E274" t="s">
+        <v>17</v>
+      </c>
+      <c r="F274">
+        <v>1080</v>
+      </c>
+      <c r="G274">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="H274">
+        <f>F274*G274</f>
+        <v>48.6</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A275" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B275" s="38"/>
+      <c r="C275" s="38"/>
+      <c r="D275" s="38"/>
+      <c r="E275" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F275" s="15">
+        <f>SUM(H245:H272)/G275</f>
+        <v>2133.4629310344826</v>
+      </c>
+      <c r="G275" s="28">
+        <f>SUM(G245:G272)</f>
+        <v>0.23200000000000004</v>
+      </c>
+      <c r="H275" s="15">
+        <f>F275*G275</f>
+        <v>494.96340000000004</v>
       </c>
     </row>
   </sheetData>
@@ -15368,7 +17659,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A19:O40"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
@@ -16052,7 +18343,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
@@ -18694,12 +20985,12 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="38" t="s">
+      <c r="A40" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
       <c r="E40" s="15" t="s">
         <v>11</v>
       </c>
@@ -19249,12 +21540,12 @@
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A60" s="38" t="s">
+      <c r="A60" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B60" s="38"/>
-      <c r="C60" s="38"/>
-      <c r="D60" s="38"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="39"/>
       <c r="E60" s="15" t="s">
         <v>11</v>
       </c>
@@ -19696,12 +21987,12 @@
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A76" s="38" t="s">
+      <c r="A76" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B76" s="38"/>
-      <c r="C76" s="38"/>
-      <c r="D76" s="38"/>
+      <c r="B76" s="39"/>
+      <c r="C76" s="39"/>
+      <c r="D76" s="39"/>
       <c r="E76" s="15" t="s">
         <v>11</v>
       </c>
@@ -20185,12 +22476,12 @@
       <c r="M93" s="21"/>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A94" s="38" t="s">
+      <c r="A94" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B94" s="38"/>
-      <c r="C94" s="38"/>
-      <c r="D94" s="38"/>
+      <c r="B94" s="39"/>
+      <c r="C94" s="39"/>
+      <c r="D94" s="39"/>
       <c r="E94" s="15" t="s">
         <v>11</v>
       </c>
@@ -20728,12 +23019,12 @@
       <c r="M113" s="13"/>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A114" s="38" t="s">
+      <c r="A114" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B114" s="38"/>
-      <c r="C114" s="38"/>
-      <c r="D114" s="38"/>
+      <c r="B114" s="39"/>
+      <c r="C114" s="39"/>
+      <c r="D114" s="39"/>
       <c r="E114" s="15" t="s">
         <v>11</v>
       </c>
@@ -21364,12 +23655,12 @@
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A137" s="38" t="s">
+      <c r="A137" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B137" s="38"/>
-      <c r="C137" s="38"/>
-      <c r="D137" s="38"/>
+      <c r="B137" s="39"/>
+      <c r="C137" s="39"/>
+      <c r="D137" s="39"/>
       <c r="E137" s="15" t="s">
         <v>11</v>
       </c>
@@ -21988,12 +24279,12 @@
       <c r="M159" s="13"/>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A160" s="38" t="s">
+      <c r="A160" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B160" s="38"/>
-      <c r="C160" s="38"/>
-      <c r="D160" s="38"/>
+      <c r="B160" s="39"/>
+      <c r="C160" s="39"/>
+      <c r="D160" s="39"/>
       <c r="E160" s="15" t="s">
         <v>11</v>
       </c>
@@ -22801,12 +25092,12 @@
       <c r="M189" s="13"/>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A190" s="38" t="s">
+      <c r="A190" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B190" s="38"/>
-      <c r="C190" s="38"/>
-      <c r="D190" s="38"/>
+      <c r="B190" s="39"/>
+      <c r="C190" s="39"/>
+      <c r="D190" s="39"/>
       <c r="E190" s="15" t="s">
         <v>11</v>
       </c>
